--- a/data/EXP 2/exp2_run2_qPCR_results.xlsx
+++ b/data/EXP 2/exp2_run2_qPCR_results.xlsx
@@ -8,20 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE011D06-512B-324C-A4AD-50A9396933EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A65DBB-F3B0-854B-BB1A-C70769F45324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" r:id="rId1"/>
-    <sheet name="Run Information" sheetId="2" r:id="rId2"/>
+    <sheet name="Cq" sheetId="1" r:id="rId1"/>
+    <sheet name="Cq summary" sheetId="3" r:id="rId2"/>
+    <sheet name="Run Information" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateCount="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cq!$F$1:$F$97</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterateCount="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="163">
   <si>
     <t>Well</t>
   </si>
@@ -476,10 +492,40 @@
     <t>98a</t>
   </si>
   <si>
-    <t>HSP70</t>
-  </si>
-  <si>
     <t>GADD45</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Delta Cq</t>
+  </si>
+  <si>
+    <t>Delta Delta Cq</t>
+  </si>
+  <si>
+    <t>average delta Cq control</t>
+  </si>
+  <si>
+    <t>2^-DeltaDeltaCq</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>A Treatment</t>
+  </si>
+  <si>
+    <t>B Treatment</t>
+  </si>
+  <si>
+    <t>average Cq (GADD45)</t>
+  </si>
+  <si>
+    <t>average Cq (HSC70)</t>
+  </si>
+  <si>
+    <t>HSC70</t>
   </si>
 </sst>
 </file>
@@ -493,7 +539,7 @@
     <numFmt numFmtId="167" formatCode="###0.0;\-###0.0"/>
     <numFmt numFmtId="168" formatCode="###0;\-###0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
@@ -614,6 +660,28 @@
       <name val="Microsoft Sans Serif"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8.25"/>
+      <name val="Microsoft Sans Serif"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.25"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -653,11 +721,42 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -668,34 +767,31 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -704,19 +800,19 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -725,27 +821,30 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -761,6 +860,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,12 +1204,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="U88" sqref="U88"/>
+      <selection pane="bottomRight" activeCell="F66" sqref="F66:F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1158,35 +1284,31 @@
     <row r="2" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>151</v>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>136</v>
-      </c>
+      <c r="F2" s="25"/>
       <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="10">
-        <v>24.843419437134902</v>
-      </c>
-      <c r="I2" s="10">
-        <v>24.843419437134902</v>
-      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="11">
         <v>0</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
       <c r="N2" s="12">
         <v>0</v>
       </c>
@@ -1200,35 +1322,31 @@
     <row r="3" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>151</v>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="F3" s="27"/>
       <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="10">
-        <v>30.0652058711084</v>
-      </c>
-      <c r="I3" s="10">
-        <v>30.0652058711084</v>
-      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="11">
         <v>0</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
       <c r="N3" s="12">
         <v>0</v>
       </c>
@@ -1241,339 +1359,311 @@
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13">
-        <v>60</v>
-      </c>
-      <c r="P4" s="9" t="s">
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19">
+        <v>0</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20">
+        <v>60</v>
+      </c>
+      <c r="P4" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="10">
-        <v>36.183835017301398</v>
-      </c>
-      <c r="I5" s="10">
-        <v>36.183835017301398</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13">
-        <v>60</v>
-      </c>
-      <c r="P5" s="9" t="s">
+      <c r="B5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
+        <v>60</v>
+      </c>
+      <c r="P5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="25"/>
-      <c r="G6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="13">
-        <v>60</v>
-      </c>
-      <c r="P6" s="9" t="s">
+      <c r="G6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19">
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <v>60</v>
+      </c>
+      <c r="P6" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
-      <c r="B7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13">
-        <v>60</v>
-      </c>
-      <c r="P7" s="9" t="s">
+      <c r="B7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <v>60</v>
+      </c>
+      <c r="P7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="13">
-        <v>60</v>
-      </c>
-      <c r="P8" s="9" t="s">
+      <c r="B8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>60</v>
+      </c>
+      <c r="P8" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13">
-        <v>60</v>
-      </c>
-      <c r="P9" s="9" t="s">
+      <c r="B9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <v>60</v>
+      </c>
+      <c r="P9" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13">
-        <v>60</v>
-      </c>
-      <c r="P10" s="9" t="s">
+      <c r="B10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <v>60</v>
+      </c>
+      <c r="P10" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="B11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="27"/>
-      <c r="G11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
-        <v>60</v>
-      </c>
-      <c r="P11" s="9" t="s">
+      <c r="G11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0</v>
+      </c>
+      <c r="O11" s="20">
+        <v>60</v>
+      </c>
+      <c r="P11" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>16</v>
@@ -1588,9 +1678,6 @@
       <c r="G12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
       <c r="J12" s="18">
         <v>0</v>
       </c>
@@ -1609,7 +1696,7 @@
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="14" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>16</v>
@@ -1624,9 +1711,6 @@
       <c r="G13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
       <c r="J13" s="18">
         <v>0</v>
       </c>
@@ -1645,30 +1729,25 @@
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="14" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>151</v>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>136</v>
-      </c>
+      <c r="F14" s="25"/>
       <c r="G14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="17">
-        <v>25.447237070602199</v>
-      </c>
-      <c r="I14" s="17">
-        <v>25.447237070602199</v>
-      </c>
       <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
         <v>0</v>
       </c>
       <c r="N14" s="19">
@@ -1683,30 +1762,25 @@
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="14" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>151</v>
+      <c r="D15" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>137</v>
-      </c>
+      <c r="F15" s="27"/>
       <c r="G15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="17">
-        <v>30.428080306186398</v>
-      </c>
-      <c r="I15" s="17">
-        <v>30.428080306186398</v>
-      </c>
       <c r="J15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
         <v>0</v>
       </c>
       <c r="N15" s="19">
@@ -1721,25 +1795,20 @@
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="14" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>151</v>
+      <c r="D16" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>138</v>
-      </c>
+      <c r="F16" s="27"/>
       <c r="G16" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
       </c>
       <c r="J16" s="18">
         <v>0</v>
@@ -1759,30 +1828,25 @@
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>151</v>
+      <c r="D17" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>139</v>
-      </c>
+      <c r="F17" s="27"/>
       <c r="G17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="17">
-        <v>36.756385079263403</v>
-      </c>
-      <c r="I17" s="17">
-        <v>36.756385079263403</v>
-      </c>
       <c r="J17" s="18">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
         <v>0</v>
       </c>
       <c r="N17" s="19">
@@ -1797,7 +1861,7 @@
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>16</v>
@@ -1812,9 +1876,6 @@
       <c r="G18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
       <c r="J18" s="18">
         <v>0</v>
       </c>
@@ -1833,26 +1894,21 @@
     </row>
     <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>152</v>
+      <c r="D19" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>136</v>
-      </c>
+      <c r="F19" s="27"/>
       <c r="G19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="17">
-        <v>0</v>
-      </c>
       <c r="J19" s="18">
         <v>0</v>
       </c>
@@ -1870,102 +1926,95 @@
       </c>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="18">
-        <v>0</v>
-      </c>
-      <c r="M20" s="19">
-        <v>0</v>
-      </c>
-      <c r="N20" s="19">
-        <v>0</v>
-      </c>
-      <c r="O20" s="20">
-        <v>60</v>
-      </c>
-      <c r="P20" s="16" t="s">
+      <c r="B20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>60</v>
+      </c>
+      <c r="P20" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="18">
-        <v>0</v>
-      </c>
-      <c r="M21" s="19">
-        <v>0</v>
-      </c>
-      <c r="N21" s="19">
-        <v>0</v>
-      </c>
-      <c r="O21" s="20">
-        <v>60</v>
-      </c>
-      <c r="P21" s="16" t="s">
+      <c r="B21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <v>60</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="14" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>152</v>
+      <c r="D22" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>139</v>
-      </c>
+      <c r="F22" s="25"/>
       <c r="G22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0</v>
       </c>
       <c r="J22" s="18">
         <v>0</v>
@@ -1985,7 +2034,7 @@
     </row>
     <row r="23" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="14" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>16</v>
@@ -2000,9 +2049,6 @@
       <c r="G23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
       <c r="J23" s="18">
         <v>0</v>
       </c>
@@ -2021,7 +2067,7 @@
     </row>
     <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="14" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>16</v>
@@ -2036,9 +2082,6 @@
       <c r="G24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
       <c r="J24" s="18">
         <v>0</v>
       </c>
@@ -2057,7 +2100,7 @@
     </row>
     <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="14" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>16</v>
@@ -2072,9 +2115,6 @@
       <c r="G25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
       <c r="J25" s="18">
         <v>0</v>
       </c>
@@ -2092,69 +2132,63 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="17">
-        <v>34.152156137551401</v>
-      </c>
-      <c r="I26" s="17">
-        <v>34.152156137551401</v>
-      </c>
-      <c r="J26" s="18">
-        <v>0</v>
-      </c>
-      <c r="N26" s="19">
-        <v>0</v>
-      </c>
-      <c r="O26" s="20">
-        <v>60</v>
-      </c>
-      <c r="P26" s="16" t="s">
+      <c r="B26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12">
+        <v>0</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0</v>
+      </c>
+      <c r="O26" s="13">
+        <v>60</v>
+      </c>
+      <c r="P26" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="14" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>151</v>
+      <c r="D27" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>141</v>
-      </c>
+      <c r="F27" s="27"/>
       <c r="G27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="17">
-        <v>36.025273565842603</v>
-      </c>
-      <c r="I27" s="17">
-        <v>36.025273565842603</v>
-      </c>
       <c r="J27" s="18">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19">
         <v>0</v>
       </c>
       <c r="N27" s="19">
@@ -2169,30 +2203,25 @@
     </row>
     <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="14" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>151</v>
+      <c r="D28" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="24" t="s">
-        <v>142</v>
-      </c>
+      <c r="F28" s="27"/>
       <c r="G28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="17">
-        <v>31.932885415057399</v>
-      </c>
-      <c r="I28" s="17">
-        <v>31.932885415057399</v>
-      </c>
       <c r="J28" s="18">
+        <v>0</v>
+      </c>
+      <c r="M28" s="19">
         <v>0</v>
       </c>
       <c r="N28" s="19">
@@ -2207,30 +2236,25 @@
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>151</v>
+      <c r="D29" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>143</v>
-      </c>
+      <c r="F29" s="27"/>
       <c r="G29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="17">
-        <v>25.571047945539799</v>
-      </c>
-      <c r="I29" s="17">
-        <v>25.571047945539799</v>
-      </c>
       <c r="J29" s="18">
+        <v>0</v>
+      </c>
+      <c r="M29" s="19">
         <v>0</v>
       </c>
       <c r="N29" s="19">
@@ -2245,7 +2269,7 @@
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>16</v>
@@ -2260,9 +2284,6 @@
       <c r="G30" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="17">
-        <v>0</v>
-      </c>
       <c r="J30" s="18">
         <v>0</v>
       </c>
@@ -2281,25 +2302,20 @@
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>152</v>
+      <c r="D31" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="26" t="s">
-        <v>140</v>
-      </c>
+      <c r="F31" s="27"/>
       <c r="G31" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I31" s="17">
-        <v>0</v>
       </c>
       <c r="J31" s="18">
         <v>0</v>
@@ -2319,25 +2335,20 @@
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="14" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>152</v>
+      <c r="D32" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="26" t="s">
-        <v>141</v>
-      </c>
+      <c r="F32" s="27"/>
       <c r="G32" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I32" s="17">
-        <v>0</v>
       </c>
       <c r="J32" s="18">
         <v>0</v>
@@ -2357,25 +2368,20 @@
     </row>
     <row r="33" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>152</v>
+      <c r="D33" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="26" t="s">
-        <v>142</v>
-      </c>
+      <c r="F33" s="27"/>
       <c r="G33" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0</v>
       </c>
       <c r="J33" s="18">
         <v>0</v>
@@ -2401,7 +2407,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>18</v>
@@ -2412,9 +2418,6 @@
       <c r="G34" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="17">
-        <v>0</v>
-      </c>
       <c r="J34" s="18">
         <v>0</v>
       </c>
@@ -2433,24 +2436,23 @@
     </row>
     <row r="35" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>17</v>
+      <c r="D35" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="27"/>
+      <c r="F35" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="G35" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="17">
-        <v>0</v>
-      </c>
       <c r="J35" s="18">
         <v>0</v>
       </c>
@@ -2468,60 +2470,62 @@
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="17">
-        <v>0</v>
-      </c>
-      <c r="J36" s="18">
-        <v>0</v>
-      </c>
-      <c r="M36" s="19">
-        <v>0</v>
-      </c>
-      <c r="N36" s="19">
-        <v>0</v>
-      </c>
-      <c r="O36" s="20">
-        <v>60</v>
-      </c>
-      <c r="P36" s="16" t="s">
+      <c r="B36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="12">
+        <v>0</v>
+      </c>
+      <c r="N36" s="12">
+        <v>0</v>
+      </c>
+      <c r="O36" s="13">
+        <v>60</v>
+      </c>
+      <c r="P36" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>17</v>
+      <c r="D37" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="27"/>
+      <c r="F37" s="26" t="s">
+        <v>136</v>
+      </c>
       <c r="G37" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I37" s="17">
-        <v>0</v>
       </c>
       <c r="J37" s="18">
         <v>0</v>
@@ -2541,7 +2545,7 @@
     </row>
     <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>16</v>
@@ -2552,19 +2556,16 @@
       <c r="E38" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="26" t="s">
         <v>140</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="17">
-        <v>34.6613237162207</v>
-      </c>
-      <c r="I38" s="17">
-        <v>34.6613237162207</v>
-      </c>
       <c r="J38" s="18">
+        <v>0</v>
+      </c>
+      <c r="M38" s="19">
         <v>0</v>
       </c>
       <c r="N38" s="19">
@@ -2579,7 +2580,7 @@
     </row>
     <row r="39" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>16</v>
@@ -2590,19 +2591,16 @@
       <c r="E39" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="24" t="s">
-        <v>141</v>
+      <c r="F39" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="17">
-        <v>39.295109495774597</v>
-      </c>
-      <c r="I39" s="17">
-        <v>39.295109495774597</v>
-      </c>
       <c r="J39" s="18">
+        <v>0</v>
+      </c>
+      <c r="M39" s="19">
         <v>0</v>
       </c>
       <c r="N39" s="19">
@@ -2617,7 +2615,7 @@
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="14" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>16</v>
@@ -2628,19 +2626,16 @@
       <c r="E40" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="24" t="s">
-        <v>142</v>
+      <c r="F40" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="17">
-        <v>31.765890938371399</v>
-      </c>
-      <c r="I40" s="17">
-        <v>31.765890938371399</v>
-      </c>
       <c r="J40" s="18">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19">
         <v>0</v>
       </c>
       <c r="N40" s="19">
@@ -2655,7 +2650,7 @@
     </row>
     <row r="41" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>16</v>
@@ -2666,19 +2661,16 @@
       <c r="E41" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="24" t="s">
-        <v>143</v>
+      <c r="F41" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="17">
-        <v>27.000986516677401</v>
-      </c>
-      <c r="I41" s="17">
-        <v>27.000986516677401</v>
-      </c>
       <c r="J41" s="18">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19">
         <v>0</v>
       </c>
       <c r="N41" s="19">
@@ -2693,23 +2685,22 @@
     </row>
     <row r="42" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="14" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>17</v>
+      <c r="D42" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="25"/>
+      <c r="F42" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="G42" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I42" s="17">
-        <v>0</v>
       </c>
       <c r="J42" s="18">
         <v>0</v>
@@ -2729,26 +2720,23 @@
     </row>
     <row r="43" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="17">
-        <v>0</v>
-      </c>
       <c r="J43" s="18">
         <v>0</v>
       </c>
@@ -2766,64 +2754,62 @@
       </c>
     </row>
     <row r="44" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="17">
-        <v>0</v>
-      </c>
-      <c r="J44" s="18">
-        <v>0</v>
-      </c>
-      <c r="M44" s="19">
-        <v>0</v>
-      </c>
-      <c r="N44" s="19">
-        <v>0</v>
-      </c>
-      <c r="O44" s="20">
-        <v>60</v>
-      </c>
-      <c r="P44" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="12">
+        <v>0</v>
+      </c>
+      <c r="N44" s="12">
+        <v>0</v>
+      </c>
+      <c r="O44" s="13">
+        <v>60</v>
+      </c>
+      <c r="P44" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I45" s="17">
-        <v>0</v>
       </c>
       <c r="J45" s="18">
         <v>0</v>
@@ -2843,25 +2829,22 @@
     </row>
     <row r="46" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="14" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I46" s="17">
-        <v>0</v>
       </c>
       <c r="J46" s="18">
         <v>0</v>
@@ -2881,23 +2864,22 @@
     </row>
     <row r="47" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>17</v>
+      <c r="D47" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="27"/>
+      <c r="F47" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="G47" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I47" s="17">
-        <v>0</v>
       </c>
       <c r="J47" s="18">
         <v>0</v>
@@ -2917,23 +2899,22 @@
     </row>
     <row r="48" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>17</v>
+      <c r="D48" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="27"/>
+      <c r="F48" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="G48" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I48" s="17">
-        <v>0</v>
       </c>
       <c r="J48" s="18">
         <v>0</v>
@@ -2953,23 +2934,22 @@
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>17</v>
+      <c r="D49" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="27"/>
+      <c r="F49" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="G49" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I49" s="17">
-        <v>0</v>
       </c>
       <c r="J49" s="18">
         <v>0</v>
@@ -2989,7 +2969,7 @@
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="14" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>16</v>
@@ -3000,19 +2980,16 @@
       <c r="E50" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="24" t="s">
-        <v>144</v>
+      <c r="F50" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="17">
-        <v>27.822130331949399</v>
-      </c>
-      <c r="I50" s="17">
-        <v>27.822130331949399</v>
-      </c>
       <c r="J50" s="18">
+        <v>0</v>
+      </c>
+      <c r="M50" s="19">
         <v>0</v>
       </c>
       <c r="N50" s="19">
@@ -3027,7 +3004,7 @@
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>16</v>
@@ -3038,21 +3015,18 @@
       <c r="E51" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="24" t="s">
-        <v>145</v>
+      <c r="F51" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="17">
-        <v>34.225284591826401</v>
-      </c>
-      <c r="I51" s="17">
-        <v>34.225284591826401</v>
-      </c>
       <c r="J51" s="18">
         <v>0</v>
       </c>
+      <c r="M51" s="19">
+        <v>0</v>
+      </c>
       <c r="N51" s="19">
         <v>0</v>
       </c>
@@ -3064,46 +3038,47 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="15" t="s">
+      <c r="B52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="17">
-        <v>34.732150299757599</v>
-      </c>
-      <c r="I52" s="17">
-        <v>34.732150299757599</v>
-      </c>
-      <c r="J52" s="18">
-        <v>0</v>
-      </c>
-      <c r="N52" s="19">
-        <v>0</v>
-      </c>
-      <c r="O52" s="20">
-        <v>60</v>
-      </c>
-      <c r="P52" s="16" t="s">
+      <c r="E52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="11">
+        <v>0</v>
+      </c>
+      <c r="K52" s="12"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="12">
+        <v>0</v>
+      </c>
+      <c r="N52" s="12">
+        <v>0</v>
+      </c>
+      <c r="O52" s="13">
+        <v>60</v>
+      </c>
+      <c r="P52" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>16</v>
@@ -3114,19 +3089,16 @@
       <c r="E53" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>147</v>
+      <c r="F53" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="17">
-        <v>39.278979384158902</v>
-      </c>
-      <c r="I53" s="17">
-        <v>39.278979384158902</v>
-      </c>
       <c r="J53" s="18">
+        <v>0</v>
+      </c>
+      <c r="M53" s="19">
         <v>0</v>
       </c>
       <c r="N53" s="19">
@@ -3141,23 +3113,22 @@
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="14" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>17</v>
+      <c r="D54" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="25"/>
+      <c r="F54" s="26" t="s">
+        <v>142</v>
+      </c>
       <c r="G54" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I54" s="17">
-        <v>0</v>
       </c>
       <c r="J54" s="18">
         <v>0</v>
@@ -3177,25 +3148,22 @@
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I55" s="17">
-        <v>0</v>
       </c>
       <c r="J55" s="18">
         <v>0</v>
@@ -3215,25 +3183,22 @@
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I56" s="17">
-        <v>0</v>
       </c>
       <c r="J56" s="18">
         <v>0</v>
@@ -3253,13 +3218,13 @@
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="14" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>18</v>
@@ -3270,9 +3235,6 @@
       <c r="G57" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="17">
-        <v>0</v>
-      </c>
       <c r="J57" s="18">
         <v>0</v>
       </c>
@@ -3291,25 +3253,22 @@
     </row>
     <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="14" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I58" s="17">
-        <v>0</v>
       </c>
       <c r="J58" s="18">
         <v>0</v>
@@ -3329,23 +3288,22 @@
     </row>
     <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="14" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>17</v>
+      <c r="D59" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="27"/>
+      <c r="F59" s="26" t="s">
+        <v>150</v>
+      </c>
       <c r="G59" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I59" s="17">
-        <v>0</v>
       </c>
       <c r="J59" s="18">
         <v>0</v>
@@ -3366,25 +3324,25 @@
     <row r="60" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="7" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>17</v>
+      <c r="D60" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="27"/>
+      <c r="F60" s="26" t="s">
+        <v>139</v>
+      </c>
       <c r="G60" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H60" s="10"/>
-      <c r="I60" s="10">
-        <v>0</v>
-      </c>
+      <c r="I60" s="10"/>
       <c r="J60" s="11">
         <v>0</v>
       </c>
@@ -3405,131 +3363,127 @@
     </row>
     <row r="61" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
-      <c r="B61" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10">
-        <v>0</v>
-      </c>
-      <c r="J61" s="11">
-        <v>0</v>
-      </c>
-      <c r="K61" s="12"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="12">
-        <v>0</v>
-      </c>
-      <c r="N61" s="12">
-        <v>0</v>
-      </c>
-      <c r="O61" s="13">
-        <v>60</v>
-      </c>
-      <c r="P61" s="9" t="s">
+      <c r="B61" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="18">
+        <v>0</v>
+      </c>
+      <c r="K61" s="19"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="19">
+        <v>0</v>
+      </c>
+      <c r="N61" s="19">
+        <v>0</v>
+      </c>
+      <c r="O61" s="20">
+        <v>60</v>
+      </c>
+      <c r="P61" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
-      <c r="B62" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="B62" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="10">
-        <v>28.267113747876301</v>
-      </c>
-      <c r="I62" s="10">
-        <v>28.267113747876301</v>
-      </c>
-      <c r="J62" s="11">
-        <v>0</v>
-      </c>
-      <c r="K62" s="12"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12">
-        <v>0</v>
-      </c>
-      <c r="O62" s="13">
-        <v>60</v>
-      </c>
-      <c r="P62" s="9" t="s">
+      <c r="E62" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="18">
+        <v>0</v>
+      </c>
+      <c r="K62" s="19"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="19">
+        <v>0</v>
+      </c>
+      <c r="N62" s="19">
+        <v>0</v>
+      </c>
+      <c r="O62" s="20">
+        <v>60</v>
+      </c>
+      <c r="P62" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
-      <c r="B63" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="B63" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="10">
-        <v>34.218835997748897</v>
-      </c>
-      <c r="I63" s="10">
-        <v>34.218835997748897</v>
-      </c>
-      <c r="J63" s="11">
-        <v>0</v>
-      </c>
-      <c r="K63" s="12"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12">
-        <v>0</v>
-      </c>
-      <c r="O63" s="13">
-        <v>60</v>
-      </c>
-      <c r="P63" s="9" t="s">
+      <c r="E63" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="18">
+        <v>0</v>
+      </c>
+      <c r="K63" s="19"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="19">
+        <v>0</v>
+      </c>
+      <c r="N63" s="19">
+        <v>0</v>
+      </c>
+      <c r="O63" s="20">
+        <v>60</v>
+      </c>
+      <c r="P63" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="14" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>16</v>
@@ -3540,19 +3494,14 @@
       <c r="E64" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="24" t="s">
-        <v>146</v>
-      </c>
+      <c r="F64" s="26"/>
       <c r="G64" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="17">
-        <v>35.331203534317197</v>
-      </c>
-      <c r="I64" s="17">
-        <v>35.331203534317197</v>
-      </c>
       <c r="J64" s="18">
+        <v>0</v>
+      </c>
+      <c r="M64" s="19">
         <v>0</v>
       </c>
       <c r="N64" s="19">
@@ -3567,7 +3516,7 @@
     </row>
     <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="14" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>16</v>
@@ -3578,14 +3527,9 @@
       <c r="E65" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="24" t="s">
-        <v>147</v>
-      </c>
+      <c r="F65" s="26"/>
       <c r="G65" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I65" s="17">
-        <v>0</v>
       </c>
       <c r="J65" s="18">
         <v>0</v>
@@ -3605,28 +3549,31 @@
     </row>
     <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>17</v>
+      <c r="D66" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="25"/>
+      <c r="F66" s="24" t="s">
+        <v>143</v>
+      </c>
       <c r="G66" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="H66" s="17">
+        <v>25.571047945539799</v>
+      </c>
       <c r="I66" s="17">
-        <v>0</v>
+        <f>AVERAGE(H66:H67)</f>
+        <v>26.286017231108602</v>
       </c>
       <c r="J66" s="18">
-        <v>0</v>
-      </c>
-      <c r="M66" s="19">
         <v>0</v>
       </c>
       <c r="N66" s="19">
@@ -3641,32 +3588,29 @@
     </row>
     <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="14" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F67" s="26" t="s">
-        <v>144</v>
+      <c r="F67" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I67" s="17">
-        <v>0</v>
+      <c r="H67" s="17">
+        <v>27.000986516677401</v>
       </c>
       <c r="J67" s="18">
         <v>0</v>
       </c>
-      <c r="M67" s="19">
-        <v>0</v>
-      </c>
       <c r="N67" s="19">
         <v>0</v>
       </c>
@@ -3678,69 +3622,70 @@
       </c>
     </row>
     <row r="68" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="15" t="s">
+      <c r="B68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="17">
-        <v>0</v>
-      </c>
-      <c r="J68" s="18">
-        <v>0</v>
-      </c>
-      <c r="M68" s="19">
-        <v>0</v>
-      </c>
-      <c r="N68" s="19">
-        <v>0</v>
-      </c>
-      <c r="O68" s="20">
-        <v>60</v>
-      </c>
-      <c r="P68" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="10">
+        <v>24.843419437134902</v>
+      </c>
+      <c r="I68" s="10">
+        <f>AVERAGE(H68:H69)</f>
+        <v>25.145328253868549</v>
+      </c>
+      <c r="J68" s="11">
+        <v>0</v>
+      </c>
+      <c r="K68" s="12"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12">
+        <v>0</v>
+      </c>
+      <c r="O68" s="13">
+        <v>60</v>
+      </c>
+      <c r="P68" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="14" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="26" t="s">
-        <v>146</v>
+      <c r="F69" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="17">
-        <v>0</v>
+      <c r="H69" s="17">
+        <v>25.447237070602199</v>
       </c>
       <c r="J69" s="18">
-        <v>0</v>
-      </c>
-      <c r="M69" s="19">
         <v>0</v>
       </c>
       <c r="N69" s="19">
@@ -3755,30 +3700,31 @@
     </row>
     <row r="70" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="14" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F70" s="26" t="s">
-        <v>147</v>
+      <c r="F70" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="H70" s="17">
+        <v>34.152156137551401</v>
+      </c>
       <c r="I70" s="17">
-        <v>0</v>
+        <f t="shared" ref="I70" si="0">AVERAGE(H70:H71)</f>
+        <v>34.406739926886047</v>
       </c>
       <c r="J70" s="18">
-        <v>0</v>
-      </c>
-      <c r="M70" s="19">
         <v>0</v>
       </c>
       <c r="N70" s="19">
@@ -3793,28 +3739,27 @@
     </row>
     <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="14" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>17</v>
+      <c r="D71" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="27"/>
+      <c r="F71" s="24" t="s">
+        <v>140</v>
+      </c>
       <c r="G71" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I71" s="17">
-        <v>0</v>
+      <c r="H71" s="17">
+        <v>34.6613237162207</v>
       </c>
       <c r="J71" s="18">
-        <v>0</v>
-      </c>
-      <c r="M71" s="19">
         <v>0</v>
       </c>
       <c r="N71" s="19">
@@ -3829,30 +3774,33 @@
     </row>
     <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="14" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="16" t="s">
-        <v>17</v>
+      <c r="D72" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="27"/>
+      <c r="F72" s="24" t="s">
+        <v>144</v>
+      </c>
       <c r="G72" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I72" s="17">
-        <v>0</v>
+      <c r="H72" s="17">
+        <v>27.822130331949399</v>
+      </c>
+      <c r="I72" s="10">
+        <f t="shared" ref="I72" si="1">AVERAGE(H72:H73)</f>
+        <v>28.044622039912852</v>
       </c>
       <c r="J72" s="18">
         <v>0</v>
       </c>
-      <c r="M72" s="19">
-        <v>0</v>
-      </c>
       <c r="N72" s="19">
         <v>0</v>
       </c>
@@ -3864,38 +3812,40 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I73" s="17">
-        <v>0</v>
-      </c>
-      <c r="J73" s="18">
-        <v>0</v>
-      </c>
-      <c r="M73" s="19">
-        <v>0</v>
-      </c>
-      <c r="N73" s="19">
-        <v>0</v>
-      </c>
-      <c r="O73" s="20">
-        <v>60</v>
-      </c>
-      <c r="P73" s="16" t="s">
+      <c r="B73" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="10">
+        <v>28.267113747876301</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0</v>
+      </c>
+      <c r="K73" s="12"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12">
+        <v>0</v>
+      </c>
+      <c r="O73" s="13">
+        <v>60</v>
+      </c>
+      <c r="P73" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3907,7 +3857,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>18</v>
@@ -3922,7 +3872,8 @@
         <v>28.543551798444799</v>
       </c>
       <c r="I74" s="17">
-        <v>28.543551798444799</v>
+        <f t="shared" ref="I74" si="2">AVERAGE(H74:H75)</f>
+        <v>28.141446027898247</v>
       </c>
       <c r="J74" s="18">
         <v>0</v>
@@ -3939,28 +3890,25 @@
     </row>
     <row r="75" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="14" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H75" s="17">
-        <v>24.692163326524302</v>
-      </c>
-      <c r="I75" s="17">
-        <v>24.692163326524302</v>
+        <v>27.739340257351699</v>
       </c>
       <c r="J75" s="18">
         <v>0</v>
@@ -3976,67 +3924,70 @@
       </c>
     </row>
     <row r="76" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="15" t="s">
+      <c r="B76" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E76" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="17">
-        <v>36.157991619349197</v>
-      </c>
-      <c r="I76" s="17">
-        <v>36.157991619349197</v>
-      </c>
-      <c r="J76" s="18">
-        <v>0</v>
-      </c>
-      <c r="N76" s="19">
-        <v>0</v>
-      </c>
-      <c r="O76" s="20">
-        <v>60</v>
-      </c>
-      <c r="P76" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="10">
+        <v>30.0652058711084</v>
+      </c>
+      <c r="I76" s="10">
+        <f t="shared" ref="I76" si="3">AVERAGE(H76:H77)</f>
+        <v>30.246643088647399</v>
+      </c>
+      <c r="J76" s="11">
+        <v>0</v>
+      </c>
+      <c r="K76" s="12"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12">
+        <v>0</v>
+      </c>
+      <c r="O76" s="13">
+        <v>60</v>
+      </c>
+      <c r="P76" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="14" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F77" s="24"/>
+      <c r="F77" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="G77" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I77" s="17">
-        <v>0</v>
+      <c r="H77" s="17">
+        <v>30.428080306186398</v>
       </c>
       <c r="J77" s="18">
-        <v>0</v>
-      </c>
-      <c r="M77" s="19">
         <v>0</v>
       </c>
       <c r="N77" s="19">
@@ -4051,70 +4002,70 @@
     </row>
     <row r="78" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
-      <c r="B78" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="25"/>
-      <c r="G78" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10">
-        <v>0</v>
-      </c>
-      <c r="J78" s="11">
-        <v>0</v>
-      </c>
-      <c r="K78" s="12"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="12">
-        <v>0</v>
-      </c>
-      <c r="N78" s="12">
-        <v>0</v>
-      </c>
-      <c r="O78" s="13">
-        <v>60</v>
-      </c>
-      <c r="P78" s="9" t="s">
+      <c r="B78" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="17">
+        <v>36.025273565842603</v>
+      </c>
+      <c r="I78" s="17">
+        <f t="shared" ref="I78" si="4">AVERAGE(H78:H79)</f>
+        <v>37.660191530808603</v>
+      </c>
+      <c r="J78" s="18">
+        <v>0</v>
+      </c>
+      <c r="K78" s="19"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19">
+        <v>0</v>
+      </c>
+      <c r="O78" s="20">
+        <v>60</v>
+      </c>
+      <c r="P78" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="14" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F79" s="26" t="s">
-        <v>148</v>
+      <c r="F79" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I79" s="17">
-        <v>0</v>
+      <c r="H79" s="17">
+        <v>39.295109495774597</v>
       </c>
       <c r="J79" s="18">
-        <v>0</v>
-      </c>
-      <c r="M79" s="19">
         <v>0</v>
       </c>
       <c r="N79" s="19">
@@ -4129,32 +4080,33 @@
     </row>
     <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="14" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F80" s="26" t="s">
-        <v>149</v>
+      <c r="F80" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I80" s="17">
-        <v>0</v>
+      <c r="H80" s="17">
+        <v>34.225284591826401</v>
+      </c>
+      <c r="I80" s="10">
+        <f t="shared" ref="I80" si="5">AVERAGE(H80:H81)</f>
+        <v>34.222060294787653</v>
       </c>
       <c r="J80" s="18">
         <v>0</v>
       </c>
-      <c r="M80" s="19">
-        <v>0</v>
-      </c>
       <c r="N80" s="19">
         <v>0</v>
       </c>
@@ -4166,67 +4118,70 @@
       </c>
     </row>
     <row r="81" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C81" s="15" t="s">
+      <c r="B81" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" s="17">
-        <v>0</v>
-      </c>
-      <c r="J81" s="18">
-        <v>0</v>
-      </c>
-      <c r="M81" s="19">
-        <v>0</v>
-      </c>
-      <c r="N81" s="19">
-        <v>0</v>
-      </c>
-      <c r="O81" s="20">
-        <v>60</v>
-      </c>
-      <c r="P81" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="10">
+        <v>34.218835997748897</v>
+      </c>
+      <c r="J81" s="11">
+        <v>0</v>
+      </c>
+      <c r="K81" s="12"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12">
+        <v>0</v>
+      </c>
+      <c r="O81" s="13">
+        <v>60</v>
+      </c>
+      <c r="P81" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="82" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F82" s="26"/>
+      <c r="F82" s="24" t="s">
+        <v>149</v>
+      </c>
       <c r="G82" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="H82" s="17">
+        <v>24.692163326524302</v>
+      </c>
       <c r="I82" s="17">
-        <v>0</v>
+        <f t="shared" ref="I82" si="6">AVERAGE(H82:H83)</f>
+        <v>25.56613092247715</v>
       </c>
       <c r="J82" s="18">
-        <v>0</v>
-      </c>
-      <c r="M82" s="19">
         <v>0</v>
       </c>
       <c r="N82" s="19">
@@ -4241,30 +4196,29 @@
     </row>
     <row r="83" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>17</v>
+      <c r="D83" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="27"/>
+      <c r="F83" s="24" t="s">
+        <v>149</v>
+      </c>
       <c r="G83" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I83" s="17">
-        <v>0</v>
+      <c r="H83" s="17">
+        <v>26.440098518429998</v>
       </c>
       <c r="J83" s="18">
         <v>0</v>
       </c>
-      <c r="M83" s="19">
-        <v>0</v>
-      </c>
       <c r="N83" s="19">
         <v>0</v>
       </c>
@@ -4276,60 +4230,70 @@
       </c>
     </row>
     <row r="84" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" s="17">
-        <v>0</v>
-      </c>
-      <c r="J84" s="18">
-        <v>0</v>
-      </c>
-      <c r="M84" s="19">
-        <v>0</v>
-      </c>
-      <c r="N84" s="19">
-        <v>0</v>
-      </c>
-      <c r="O84" s="20">
-        <v>60</v>
-      </c>
-      <c r="P84" s="16" t="s">
+      <c r="B84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="10">
+        <v>40</v>
+      </c>
+      <c r="I84" s="10">
+        <f t="shared" ref="I84" si="7">AVERAGE(H84:H85)</f>
+        <v>40</v>
+      </c>
+      <c r="J84" s="11">
+        <v>0</v>
+      </c>
+      <c r="K84" s="12"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="12">
+        <v>0</v>
+      </c>
+      <c r="N84" s="12">
+        <v>0</v>
+      </c>
+      <c r="O84" s="13">
+        <v>60</v>
+      </c>
+      <c r="P84" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="85" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="14" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="16" t="s">
-        <v>17</v>
+      <c r="D85" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F85" s="27"/>
+      <c r="F85" s="24" t="s">
+        <v>138</v>
+      </c>
       <c r="G85" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I85" s="17">
-        <v>0</v>
+      <c r="H85" s="17">
+        <v>40</v>
       </c>
       <c r="J85" s="18">
         <v>0</v>
@@ -4349,28 +4313,29 @@
     </row>
     <row r="86" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="14" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G86" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H86" s="17">
-        <v>27.739340257351699</v>
+        <v>31.932885415057399</v>
       </c>
       <c r="I86" s="17">
-        <v>27.739340257351699</v>
+        <f t="shared" ref="I86" si="8">AVERAGE(H86:H87)</f>
+        <v>31.849388176714399</v>
       </c>
       <c r="J86" s="18">
         <v>0</v>
@@ -4387,28 +4352,25 @@
     </row>
     <row r="87" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="14" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G87" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H87" s="17">
-        <v>26.440098518429998</v>
-      </c>
-      <c r="I87" s="17">
-        <v>26.440098518429998</v>
+        <v>31.765890938371399</v>
       </c>
       <c r="J87" s="18">
         <v>0</v>
@@ -4425,28 +4387,29 @@
     </row>
     <row r="88" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="14" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H88" s="17">
-        <v>37.239399904770004</v>
-      </c>
-      <c r="I88" s="17">
-        <v>37.239399904770004</v>
+        <v>34.732150299757599</v>
+      </c>
+      <c r="I88" s="10">
+        <f t="shared" ref="I88" si="9">AVERAGE(H88:H89)</f>
+        <v>35.031676917037402</v>
       </c>
       <c r="J88" s="18">
         <v>0</v>
@@ -4463,28 +4426,27 @@
     </row>
     <row r="89" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="14" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F89" s="24"/>
+      <c r="F89" s="24" t="s">
+        <v>146</v>
+      </c>
       <c r="G89" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I89" s="17">
-        <v>0</v>
+      <c r="H89" s="17">
+        <v>35.331203534317197</v>
       </c>
       <c r="J89" s="18">
-        <v>0</v>
-      </c>
-      <c r="M89" s="19">
         <v>0</v>
       </c>
       <c r="N89" s="19">
@@ -4499,28 +4461,31 @@
     </row>
     <row r="90" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="14" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>17</v>
+      <c r="D90" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F90" s="25"/>
+      <c r="F90" s="24" t="s">
+        <v>150</v>
+      </c>
       <c r="G90" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="H90" s="17">
+        <v>36.157991619349197</v>
+      </c>
       <c r="I90" s="17">
-        <v>0</v>
+        <f t="shared" ref="I90" si="10">AVERAGE(H90:H91)</f>
+        <v>36.6986957620596</v>
       </c>
       <c r="J90" s="18">
-        <v>0</v>
-      </c>
-      <c r="M90" s="19">
         <v>0</v>
       </c>
       <c r="N90" s="19">
@@ -4535,32 +4500,29 @@
     </row>
     <row r="91" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F91" s="26" t="s">
-        <v>148</v>
+      <c r="F91" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="G91" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I91" s="17">
-        <v>0</v>
+      <c r="H91" s="17">
+        <v>37.239399904770004</v>
       </c>
       <c r="J91" s="18">
         <v>0</v>
       </c>
-      <c r="M91" s="19">
-        <v>0</v>
-      </c>
       <c r="N91" s="19">
         <v>0</v>
       </c>
@@ -4572,69 +4534,70 @@
       </c>
     </row>
     <row r="92" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="15" t="s">
+      <c r="B92" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I92" s="17">
-        <v>0</v>
-      </c>
-      <c r="J92" s="18">
-        <v>0</v>
-      </c>
-      <c r="M92" s="19">
-        <v>0</v>
-      </c>
-      <c r="N92" s="19">
-        <v>0</v>
-      </c>
-      <c r="O92" s="20">
-        <v>60</v>
-      </c>
-      <c r="P92" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="10">
+        <v>36.183835017301398</v>
+      </c>
+      <c r="I92" s="10">
+        <f t="shared" ref="I92" si="11">AVERAGE(H92:H93)</f>
+        <v>36.4701100482824</v>
+      </c>
+      <c r="J92" s="11">
+        <v>0</v>
+      </c>
+      <c r="K92" s="12"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12">
+        <v>0</v>
+      </c>
+      <c r="O92" s="13">
+        <v>60</v>
+      </c>
+      <c r="P92" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="14" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F93" s="26" t="s">
-        <v>150</v>
+      <c r="F93" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I93" s="17">
-        <v>0</v>
+      <c r="H93" s="17">
+        <v>36.756385079263403</v>
       </c>
       <c r="J93" s="18">
-        <v>0</v>
-      </c>
-      <c r="M93" s="19">
         <v>0</v>
       </c>
       <c r="N93" s="19">
@@ -4649,28 +4612,30 @@
     </row>
     <row r="94" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="14" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F94" s="26"/>
+      <c r="F94" s="24" t="s">
+        <v>147</v>
+      </c>
       <c r="G94" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="H94" s="17">
+        <v>39.278979384158902</v>
+      </c>
       <c r="I94" s="17">
         <v>0</v>
       </c>
       <c r="J94" s="18">
-        <v>0</v>
-      </c>
-      <c r="M94" s="19">
         <v>0</v>
       </c>
       <c r="N94" s="19">
@@ -4685,23 +4650,22 @@
     </row>
     <row r="95" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="14" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="16" t="s">
-        <v>17</v>
+      <c r="D95" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F95" s="27"/>
+      <c r="F95" s="24" t="s">
+        <v>147</v>
+      </c>
       <c r="G95" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I95" s="17">
-        <v>0</v>
       </c>
       <c r="J95" s="18">
         <v>0</v>
@@ -4721,23 +4685,20 @@
     </row>
     <row r="96" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="14" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="16" t="s">
-        <v>17</v>
+      <c r="D96" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F96" s="27"/>
+      <c r="F96" s="24"/>
       <c r="G96" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="I96" s="17">
-        <v>0</v>
       </c>
       <c r="J96" s="18">
         <v>0</v>
@@ -4757,24 +4718,21 @@
     </row>
     <row r="97" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="16" t="s">
-        <v>17</v>
+      <c r="D97" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F97" s="27"/>
+      <c r="F97" s="24"/>
       <c r="G97" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I97" s="17">
-        <v>0</v>
-      </c>
       <c r="J97" s="18">
         <v>0</v>
       </c>
@@ -4792,6 +4750,10 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F97" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:P98">
+    <sortCondition ref="D1:D98"/>
+  </sortState>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="0" scale="0" pageOrder="overThenDown" orientation="portrait" blackAndWhite="1" useFirstPageNumber="1"/>
@@ -4799,6 +4761,231 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBBEAF4-9A75-004E-B0EA-7F851E314ACC}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="34">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34">
+        <v>26.286017231108602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34">
+        <v>25.145328253868549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+      <c r="D4" s="34">
+        <v>34.406739926886047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
+        <v>28.044622039912852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="34">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34">
+        <v>28.141446027898247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="34">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34">
+        <v>30.246643088647399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="34">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34">
+        <v>37.660191530808603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="34">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34">
+        <v>34.222060294787653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="34">
+        <v>25.56613092247715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="34">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="34">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34">
+        <v>31.849388176714399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="34">
+        <v>0</v>
+      </c>
+      <c r="D13" s="34">
+        <v>35.031676917037402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="34">
+        <v>0</v>
+      </c>
+      <c r="D14" s="34">
+        <v>36.6986957620596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="34">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34">
+        <v>36.4701100482824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="34">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>

--- a/data/EXP 2/exp2_run2_qPCR_results.xlsx
+++ b/data/EXP 2/exp2_run2_qPCR_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A65DBB-F3B0-854B-BB1A-C70769F45324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16E9CFA-87C3-5A49-8329-127AE634EBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="166">
   <si>
     <t>Well</t>
   </si>
@@ -526,6 +526,15 @@
   </si>
   <si>
     <t>HSC70</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -683,7 +692,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,8 +729,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -760,6 +781,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -767,7 +819,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -869,24 +921,66 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4765,7 +4859,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -4773,7 +4867,7 @@
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="14.75" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
@@ -4805,175 +4899,401 @@
       <c r="H1" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="43" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" s="35" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="34">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="34">
+        <v>25.145328253868549</v>
+      </c>
+      <c r="E2" s="34">
+        <f>D2-B2</f>
+        <v>25.145328253868549</v>
+      </c>
+      <c r="F2" s="34">
+        <f>E2-$G$2</f>
+        <v>-8.4762967357534507</v>
+      </c>
+      <c r="G2" s="34">
+        <f>AVERAGE(E12:E15)</f>
+        <v>33.621624989621999</v>
+      </c>
+      <c r="H2" s="34">
+        <f>2^-(F2)</f>
+        <v>356.13902845275976</v>
+      </c>
+      <c r="I2" s="44">
+        <f>AVERAGE(H12:H15)</f>
+        <v>40.539494082573903</v>
+      </c>
+      <c r="J2" s="45">
+        <f>AVERAGE(H2:H6)</f>
+        <v>91.893432202637968</v>
+      </c>
+      <c r="K2" s="46">
+        <f>AVERAGE(H7:H11)</f>
+        <v>54.037456212230509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="34">
+        <v>34.406739926886047</v>
+      </c>
+      <c r="E3" s="34">
+        <f>D3-B3</f>
+        <v>34.406739926886047</v>
+      </c>
+      <c r="F3" s="34">
+        <f t="shared" ref="F3:F15" si="0">E3-$G$2</f>
+        <v>0.7851149372640478</v>
+      </c>
+      <c r="H3" s="34">
+        <f t="shared" ref="H3:H15" si="1">2^-(F3)</f>
+        <v>0.58030572329819574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="34">
+        <v>28.044622039912852</v>
+      </c>
+      <c r="E4" s="34">
+        <f>D4-B4</f>
+        <v>28.044622039912852</v>
+      </c>
+      <c r="F4" s="34">
+        <f t="shared" si="0"/>
+        <v>-5.5770029497091471</v>
+      </c>
+      <c r="H4" s="34">
+        <f t="shared" si="1"/>
+        <v>47.735906454029838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="34">
+        <v>0</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="34">
+        <v>28.141446027898247</v>
+      </c>
+      <c r="E5" s="34">
+        <f>D5-B5</f>
+        <v>28.141446027898247</v>
+      </c>
+      <c r="F5" s="34">
+        <f t="shared" si="0"/>
+        <v>-5.4801789617237517</v>
+      </c>
+      <c r="H5" s="34">
+        <f t="shared" si="1"/>
+        <v>44.637334098887614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="34">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="34">
+        <v>30.246643088647399</v>
+      </c>
+      <c r="E6" s="34">
+        <f>D6-B6</f>
+        <v>30.246643088647399</v>
+      </c>
+      <c r="F6" s="34">
+        <f t="shared" si="0"/>
+        <v>-3.3749819009745998</v>
+      </c>
+      <c r="H6" s="34">
+        <f t="shared" si="1"/>
+        <v>10.374586284214429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="36">
+        <v>0</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="36">
+        <v>37.660191530808603</v>
+      </c>
+      <c r="E7" s="36">
+        <f>D7-B7</f>
+        <v>37.660191530808603</v>
+      </c>
+      <c r="F7" s="36">
+        <f t="shared" si="0"/>
+        <v>4.0385665411866043</v>
+      </c>
+      <c r="H7" s="36">
+        <f t="shared" si="1"/>
+        <v>6.085136597743241E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="36">
+        <v>0</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="36">
+        <v>34.222060294787653</v>
+      </c>
+      <c r="E8" s="36">
+        <f>D8-B8</f>
+        <v>34.222060294787653</v>
+      </c>
+      <c r="F8" s="36">
+        <f t="shared" si="0"/>
+        <v>0.60043530516565369</v>
+      </c>
+      <c r="H8" s="36">
+        <f t="shared" si="1"/>
+        <v>0.65955491749319062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="36">
+        <v>0</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="36">
+        <v>25.56613092247715</v>
+      </c>
+      <c r="E9" s="36">
+        <f>D9-B9</f>
+        <v>25.56613092247715</v>
+      </c>
+      <c r="F9" s="36">
+        <f t="shared" si="0"/>
+        <v>-8.0554940671448492</v>
+      </c>
+      <c r="H9" s="36">
+        <f t="shared" si="1"/>
+        <v>266.03902290141531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="36">
+        <v>0</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="36">
+        <v>40</v>
+      </c>
+      <c r="E10" s="36">
+        <f>D10-B10</f>
+        <v>40</v>
+      </c>
+      <c r="F10" s="36">
+        <f t="shared" si="0"/>
+        <v>6.3783750103780008</v>
+      </c>
+      <c r="H10" s="36">
+        <f t="shared" si="1"/>
+        <v>1.2020368958090713E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="36">
+        <v>0</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="36">
+        <v>31.849388176714399</v>
+      </c>
+      <c r="E11" s="36">
+        <f>D11-B11</f>
+        <v>31.849388176714399</v>
+      </c>
+      <c r="F11" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.7722368129076003</v>
+      </c>
+      <c r="H11" s="36">
+        <f t="shared" si="1"/>
+        <v>3.415831507308571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="34">
-        <v>0</v>
-      </c>
-      <c r="D2" s="34">
+      <c r="B12" s="39">
+        <v>0</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="39">
         <v>26.286017231108602</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="34">
-        <v>0</v>
-      </c>
-      <c r="D3" s="34">
-        <v>25.145328253868549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="34">
-        <v>0</v>
-      </c>
-      <c r="D4" s="34">
-        <v>34.406739926886047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="34">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34">
-        <v>28.044622039912852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="34">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34">
-        <v>28.141446027898247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="34">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34">
-        <v>30.246643088647399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="34">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34">
-        <v>37.660191530808603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="34">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34">
-        <v>34.222060294787653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="34">
-        <v>0</v>
-      </c>
-      <c r="D10" s="34">
-        <v>25.56613092247715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="34">
-        <v>0</v>
-      </c>
-      <c r="D11" s="34">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="34">
-        <v>0</v>
-      </c>
-      <c r="D12" s="34">
-        <v>31.849388176714399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="35" t="s">
+      <c r="E12" s="39">
+        <f>D12-B12</f>
+        <v>26.286017231108602</v>
+      </c>
+      <c r="F12" s="39">
+        <f t="shared" si="0"/>
+        <v>-7.3356077585133974</v>
+      </c>
+      <c r="H12" s="39">
+        <f t="shared" si="1"/>
+        <v>161.52433872817841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="34">
-        <v>0</v>
-      </c>
-      <c r="D13" s="34">
+      <c r="B13" s="39">
+        <v>0</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="39">
         <v>35.031676917037402</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
+      <c r="E13" s="39">
+        <f>D13-B13</f>
+        <v>35.031676917037402</v>
+      </c>
+      <c r="F13" s="39">
+        <f t="shared" si="0"/>
+        <v>1.4100519274154024</v>
+      </c>
+      <c r="H13" s="39">
+        <f t="shared" si="1"/>
+        <v>0.37629814238143827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="34">
-        <v>0</v>
-      </c>
-      <c r="D14" s="34">
+      <c r="B14" s="39">
+        <v>0</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="39">
         <v>36.6986957620596</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="35" t="s">
+      <c r="E14" s="39">
+        <f>D14-B14</f>
+        <v>36.6986957620596</v>
+      </c>
+      <c r="F14" s="39">
+        <f t="shared" si="0"/>
+        <v>3.077070772437601</v>
+      </c>
+      <c r="H14" s="39">
+        <f t="shared" si="1"/>
+        <v>0.11849755751601937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="34">
-        <v>0</v>
-      </c>
-      <c r="D15" s="34">
+      <c r="B15" s="39">
+        <v>0</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="39">
         <v>36.4701100482824</v>
       </c>
+      <c r="E15" s="39">
+        <f>D15-B15</f>
+        <v>36.4701100482824</v>
+      </c>
+      <c r="F15" s="39">
+        <f t="shared" si="0"/>
+        <v>2.8484850586604011</v>
+      </c>
+      <c r="H15" s="39">
+        <f t="shared" si="1"/>
+        <v>0.1388419022197411</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="31">
         <v>0</v>
       </c>
       <c r="C16" t="s">
@@ -4981,6 +5301,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
+    <sortCondition ref="C1:C16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/EXP 2/exp2_run2_qPCR_results.xlsx
+++ b/data/EXP 2/exp2_run2_qPCR_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16E9CFA-87C3-5A49-8329-127AE634EBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6813B861-9A48-5244-97FB-BCA796894AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4859,7 +4859,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -4914,7 +4914,7 @@
         <v>136</v>
       </c>
       <c r="B2" s="34">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>164</v>
@@ -4923,32 +4923,32 @@
         <v>25.145328253868549</v>
       </c>
       <c r="E2" s="34">
-        <f>D2-B2</f>
-        <v>25.145328253868549</v>
+        <f t="shared" ref="E2:E15" si="0">D2-B2</f>
+        <v>-14.854671746131451</v>
       </c>
       <c r="F2" s="34">
         <f>E2-$G$2</f>
-        <v>-8.4762967357534507</v>
+        <v>-8.4762967357534524</v>
       </c>
       <c r="G2" s="34">
         <f>AVERAGE(E12:E15)</f>
-        <v>33.621624989621999</v>
+        <v>-6.378375010377999</v>
       </c>
       <c r="H2" s="34">
         <f>2^-(F2)</f>
-        <v>356.13902845275976</v>
+        <v>356.1390284527601</v>
       </c>
       <c r="I2" s="44">
         <f>AVERAGE(H12:H15)</f>
-        <v>40.539494082573903</v>
+        <v>40.539494082573938</v>
       </c>
       <c r="J2" s="45">
         <f>AVERAGE(H2:H6)</f>
-        <v>91.893432202637968</v>
+        <v>91.893432202638053</v>
       </c>
       <c r="K2" s="46">
         <f>AVERAGE(H7:H11)</f>
-        <v>54.037456212230509</v>
+        <v>54.037456212230566</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.15">
@@ -4956,7 +4956,7 @@
         <v>140</v>
       </c>
       <c r="B3" s="34">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>164</v>
@@ -4965,16 +4965,16 @@
         <v>34.406739926886047</v>
       </c>
       <c r="E3" s="34">
-        <f>D3-B3</f>
-        <v>34.406739926886047</v>
+        <f t="shared" si="0"/>
+        <v>-5.593260073113953</v>
       </c>
       <c r="F3" s="34">
-        <f t="shared" ref="F3:F15" si="0">E3-$G$2</f>
-        <v>0.7851149372640478</v>
+        <f t="shared" ref="F3:F15" si="1">E3-$G$2</f>
+        <v>0.78511493726404602</v>
       </c>
       <c r="H3" s="34">
-        <f t="shared" ref="H3:H15" si="1">2^-(F3)</f>
-        <v>0.58030572329819574</v>
+        <f t="shared" ref="H3:H15" si="2">2^-(F3)</f>
+        <v>0.58030572329819652</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.15">
@@ -4982,7 +4982,7 @@
         <v>144</v>
       </c>
       <c r="B4" s="34">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>164</v>
@@ -4991,16 +4991,16 @@
         <v>28.044622039912852</v>
       </c>
       <c r="E4" s="34">
-        <f>D4-B4</f>
-        <v>28.044622039912852</v>
+        <f t="shared" si="0"/>
+        <v>-11.955377960087148</v>
       </c>
       <c r="F4" s="34">
-        <f t="shared" si="0"/>
-        <v>-5.5770029497091471</v>
+        <f t="shared" si="1"/>
+        <v>-5.5770029497091489</v>
       </c>
       <c r="H4" s="34">
-        <f t="shared" si="1"/>
-        <v>47.735906454029838</v>
+        <f t="shared" si="2"/>
+        <v>47.735906454029902</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.15">
@@ -5008,7 +5008,7 @@
         <v>148</v>
       </c>
       <c r="B5" s="34">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>164</v>
@@ -5017,16 +5017,16 @@
         <v>28.141446027898247</v>
       </c>
       <c r="E5" s="34">
-        <f>D5-B5</f>
-        <v>28.141446027898247</v>
+        <f t="shared" si="0"/>
+        <v>-11.858553972101753</v>
       </c>
       <c r="F5" s="34">
-        <f t="shared" si="0"/>
-        <v>-5.4801789617237517</v>
+        <f t="shared" si="1"/>
+        <v>-5.4801789617237535</v>
       </c>
       <c r="H5" s="34">
-        <f t="shared" si="1"/>
-        <v>44.637334098887614</v>
+        <f t="shared" si="2"/>
+        <v>44.637334098887649</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.15">
@@ -5034,7 +5034,7 @@
         <v>137</v>
       </c>
       <c r="B6" s="34">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>164</v>
@@ -5043,16 +5043,16 @@
         <v>30.246643088647399</v>
       </c>
       <c r="E6" s="34">
-        <f>D6-B6</f>
-        <v>30.246643088647399</v>
+        <f t="shared" si="0"/>
+        <v>-9.7533569113526006</v>
       </c>
       <c r="F6" s="34">
-        <f t="shared" si="0"/>
-        <v>-3.3749819009745998</v>
+        <f t="shared" si="1"/>
+        <v>-3.3749819009746016</v>
       </c>
       <c r="H6" s="34">
-        <f t="shared" si="1"/>
-        <v>10.374586284214429</v>
+        <f t="shared" si="2"/>
+        <v>10.374586284214441</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -5060,7 +5060,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="36">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>165</v>
@@ -5069,16 +5069,16 @@
         <v>37.660191530808603</v>
       </c>
       <c r="E7" s="36">
-        <f>D7-B7</f>
-        <v>37.660191530808603</v>
+        <f t="shared" si="0"/>
+        <v>-2.3398084691913965</v>
       </c>
       <c r="F7" s="36">
-        <f t="shared" si="0"/>
-        <v>4.0385665411866043</v>
+        <f t="shared" si="1"/>
+        <v>4.0385665411866025</v>
       </c>
       <c r="H7" s="36">
-        <f t="shared" si="1"/>
-        <v>6.085136597743241E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.0851365977432501E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -5086,7 +5086,7 @@
         <v>145</v>
       </c>
       <c r="B8" s="36">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>165</v>
@@ -5095,16 +5095,16 @@
         <v>34.222060294787653</v>
       </c>
       <c r="E8" s="36">
-        <f>D8-B8</f>
-        <v>34.222060294787653</v>
+        <f t="shared" si="0"/>
+        <v>-5.7779397052123471</v>
       </c>
       <c r="F8" s="36">
-        <f t="shared" si="0"/>
-        <v>0.60043530516565369</v>
+        <f t="shared" si="1"/>
+        <v>0.60043530516565191</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" si="1"/>
-        <v>0.65955491749319062</v>
+        <f t="shared" si="2"/>
+        <v>0.65955491749319151</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -5112,7 +5112,7 @@
         <v>149</v>
       </c>
       <c r="B9" s="36">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>165</v>
@@ -5121,16 +5121,16 @@
         <v>25.56613092247715</v>
       </c>
       <c r="E9" s="36">
-        <f>D9-B9</f>
-        <v>25.56613092247715</v>
+        <f t="shared" si="0"/>
+        <v>-14.43386907752285</v>
       </c>
       <c r="F9" s="36">
-        <f t="shared" si="0"/>
-        <v>-8.0554940671448492</v>
+        <f t="shared" si="1"/>
+        <v>-8.0554940671448509</v>
       </c>
       <c r="H9" s="36">
-        <f t="shared" si="1"/>
-        <v>266.03902290141531</v>
+        <f t="shared" si="2"/>
+        <v>266.03902290141554</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -5138,7 +5138,7 @@
         <v>138</v>
       </c>
       <c r="B10" s="36">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>165</v>
@@ -5147,16 +5147,16 @@
         <v>40</v>
       </c>
       <c r="E10" s="36">
-        <f>D10-B10</f>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F10" s="36">
-        <f t="shared" si="0"/>
-        <v>6.3783750103780008</v>
+        <f t="shared" si="1"/>
+        <v>6.378375010377999</v>
       </c>
       <c r="H10" s="36">
-        <f t="shared" si="1"/>
-        <v>1.2020368958090713E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.2020368958090725E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.15">
@@ -5164,7 +5164,7 @@
         <v>142</v>
       </c>
       <c r="B11" s="36">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>165</v>
@@ -5173,16 +5173,16 @@
         <v>31.849388176714399</v>
       </c>
       <c r="E11" s="36">
-        <f>D11-B11</f>
-        <v>31.849388176714399</v>
+        <f t="shared" si="0"/>
+        <v>-8.1506118232856011</v>
       </c>
       <c r="F11" s="36">
-        <f t="shared" si="0"/>
-        <v>-1.7722368129076003</v>
+        <f t="shared" si="1"/>
+        <v>-1.772236812907602</v>
       </c>
       <c r="H11" s="36">
-        <f t="shared" si="1"/>
-        <v>3.415831507308571</v>
+        <f t="shared" si="2"/>
+        <v>3.4158315073085745</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
@@ -5190,7 +5190,7 @@
         <v>143</v>
       </c>
       <c r="B12" s="39">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>163</v>
@@ -5199,16 +5199,16 @@
         <v>26.286017231108602</v>
       </c>
       <c r="E12" s="39">
-        <f>D12-B12</f>
-        <v>26.286017231108602</v>
+        <f t="shared" si="0"/>
+        <v>-13.713982768891398</v>
       </c>
       <c r="F12" s="39">
-        <f t="shared" si="0"/>
-        <v>-7.3356077585133974</v>
+        <f t="shared" si="1"/>
+        <v>-7.3356077585133992</v>
       </c>
       <c r="H12" s="39">
-        <f t="shared" si="1"/>
-        <v>161.52433872817841</v>
+        <f t="shared" si="2"/>
+        <v>161.52433872817855</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
@@ -5216,7 +5216,7 @@
         <v>146</v>
       </c>
       <c r="B13" s="39">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>163</v>
@@ -5225,16 +5225,16 @@
         <v>35.031676917037402</v>
       </c>
       <c r="E13" s="39">
-        <f>D13-B13</f>
-        <v>35.031676917037402</v>
+        <f t="shared" si="0"/>
+        <v>-4.9683230829625984</v>
       </c>
       <c r="F13" s="39">
-        <f t="shared" si="0"/>
-        <v>1.4100519274154024</v>
+        <f t="shared" si="1"/>
+        <v>1.4100519274154006</v>
       </c>
       <c r="H13" s="39">
-        <f t="shared" si="1"/>
-        <v>0.37629814238143827</v>
+        <f t="shared" si="2"/>
+        <v>0.37629814238143872</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
@@ -5242,7 +5242,7 @@
         <v>150</v>
       </c>
       <c r="B14" s="39">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>163</v>
@@ -5251,16 +5251,16 @@
         <v>36.6986957620596</v>
       </c>
       <c r="E14" s="39">
-        <f>D14-B14</f>
-        <v>36.6986957620596</v>
+        <f t="shared" si="0"/>
+        <v>-3.3013042379403998</v>
       </c>
       <c r="F14" s="39">
-        <f t="shared" si="0"/>
-        <v>3.077070772437601</v>
+        <f t="shared" si="1"/>
+        <v>3.0770707724375992</v>
       </c>
       <c r="H14" s="39">
-        <f t="shared" si="1"/>
-        <v>0.11849755751601937</v>
+        <f t="shared" si="2"/>
+        <v>0.11849755751601952</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
@@ -5268,7 +5268,7 @@
         <v>139</v>
       </c>
       <c r="B15" s="39">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>163</v>
@@ -5277,16 +5277,16 @@
         <v>36.4701100482824</v>
       </c>
       <c r="E15" s="39">
-        <f>D15-B15</f>
-        <v>36.4701100482824</v>
+        <f t="shared" si="0"/>
+        <v>-3.5298899517175997</v>
       </c>
       <c r="F15" s="39">
-        <f t="shared" si="0"/>
-        <v>2.8484850586604011</v>
+        <f t="shared" si="1"/>
+        <v>2.8484850586603994</v>
       </c>
       <c r="H15" s="39">
-        <f t="shared" si="1"/>
-        <v>0.1388419022197411</v>
+        <f t="shared" si="2"/>
+        <v>0.13884190221974127</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">

--- a/data/EXP 2/exp2_run2_qPCR_results.xlsx
+++ b/data/EXP 2/exp2_run2_qPCR_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6813B861-9A48-5244-97FB-BCA796894AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75DEA0B-A5B7-744C-80FA-C672FCB40B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4859,7 +4859,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
